--- a/correto/SAN-038-25-09_CORRIGIDO.xlsx
+++ b/correto/SAN-038-25-09_CORRIGIDO.xlsx
@@ -7285,12 +7285,12 @@
     </row>
     <row r="54" ht="13.5" customHeight="1" thickBot="1">
       <c r="C54" s="162" t="n">
-        <v>11286</v>
+        <v>11303</v>
       </c>
       <c r="D54" s="668" t="n"/>
       <c r="E54" s="669" t="n"/>
       <c r="F54" s="162" t="n">
-        <v>240</v>
+        <v>240.3582628209026</v>
       </c>
       <c r="G54" s="668" t="n"/>
       <c r="H54" s="669" t="n"/>
@@ -7307,7 +7307,7 @@
       <c r="M54" s="666" t="n"/>
       <c r="N54" s="667" t="n"/>
       <c r="O54" s="162" t="n">
-        <v>2259.1100591716</v>
+        <v>2262.48237226546</v>
       </c>
       <c r="P54" s="668" t="n"/>
       <c r="Q54" s="669" t="n"/>
@@ -7357,12 +7357,12 @@
     </row>
     <row r="55" ht="13.5" customHeight="1" thickBot="1">
       <c r="C55" s="162" t="n">
-        <v>11340</v>
+        <v>11354</v>
       </c>
       <c r="D55" s="668" t="n"/>
       <c r="E55" s="669" t="n"/>
       <c r="F55" s="162" t="n">
-        <v>240.1</v>
+        <v>240.3990328664854</v>
       </c>
       <c r="G55" s="668" t="n"/>
       <c r="H55" s="669" t="n"/>
@@ -7379,7 +7379,7 @@
       <c r="M55" s="666" t="n"/>
       <c r="N55" s="667" t="n"/>
       <c r="O55" s="162" t="n">
-        <v>2266.33430567685</v>
+        <v>2269.1569147724</v>
       </c>
       <c r="P55" s="668" t="n"/>
       <c r="Q55" s="669" t="n"/>
@@ -7431,12 +7431,12 @@
     </row>
     <row r="56" ht="13.5" customHeight="1" thickBot="1">
       <c r="C56" s="162" t="n">
-        <v>11375</v>
+        <v>11383</v>
       </c>
       <c r="D56" s="668" t="n"/>
       <c r="E56" s="669" t="n"/>
       <c r="F56" s="162" t="n">
-        <v>240.2</v>
+        <v>240.3631884942382</v>
       </c>
       <c r="G56" s="668" t="n"/>
       <c r="H56" s="669" t="n"/>
@@ -7453,7 +7453,7 @@
       <c r="M56" s="666" t="n"/>
       <c r="N56" s="667" t="n"/>
       <c r="O56" s="162" t="n">
-        <v>2268.1637183391</v>
+        <v>2269.70467679822</v>
       </c>
       <c r="P56" s="668" t="n"/>
       <c r="Q56" s="669" t="n"/>
@@ -7909,12 +7909,12 @@
     </row>
     <row r="63" ht="13.5" customHeight="1" thickBot="1">
       <c r="C63" s="162" t="n">
-        <v>18985</v>
+        <v>19013</v>
       </c>
       <c r="D63" s="668" t="n"/>
       <c r="E63" s="669" t="n"/>
       <c r="F63" s="162" t="n">
-        <v>240</v>
+        <v>240.3502658888277</v>
       </c>
       <c r="G63" s="668" t="n"/>
       <c r="H63" s="669" t="n"/>
@@ -7931,7 +7931,7 @@
       <c r="M63" s="666" t="n"/>
       <c r="N63" s="667" t="n"/>
       <c r="O63" s="162" t="n">
-        <v>3806.0004968944</v>
+        <v>3811.55513083991</v>
       </c>
       <c r="P63" s="668" t="n"/>
       <c r="Q63" s="669" t="n"/>
@@ -7978,12 +7978,12 @@
     </row>
     <row r="64" ht="13.5" customHeight="1" thickBot="1">
       <c r="C64" s="162" t="n">
-        <v>19030</v>
+        <v>19051</v>
       </c>
       <c r="D64" s="668" t="n"/>
       <c r="E64" s="669" t="n"/>
       <c r="F64" s="162" t="n">
-        <v>240.1</v>
+        <v>240.3636451969763</v>
       </c>
       <c r="G64" s="668" t="n"/>
       <c r="H64" s="669" t="n"/>
@@ -8000,7 +8000,7 @@
       <c r="M64" s="666" t="n"/>
       <c r="N64" s="667" t="n"/>
       <c r="O64" s="162" t="n">
-        <v>3815.91690497739</v>
+        <v>3820.10702644369</v>
       </c>
       <c r="P64" s="668" t="n"/>
       <c r="Q64" s="669" t="n"/>
@@ -8045,12 +8045,12 @@
     </row>
     <row r="65" ht="13.5" customHeight="1" thickBot="1">
       <c r="C65" s="162" t="n">
-        <v>19062</v>
+        <v>19077</v>
       </c>
       <c r="D65" s="668" t="n"/>
       <c r="E65" s="669" t="n"/>
       <c r="F65" s="162" t="n">
-        <v>240.2</v>
+        <v>240.3912420159643</v>
       </c>
       <c r="G65" s="668" t="n"/>
       <c r="H65" s="669" t="n"/>
@@ -8067,7 +8067,7 @@
       <c r="M65" s="666" t="n"/>
       <c r="N65" s="667" t="n"/>
       <c r="O65" s="162" t="n">
-        <v>3821.7845886121</v>
+        <v>3824.82741038274</v>
       </c>
       <c r="P65" s="668" t="n"/>
       <c r="Q65" s="669" t="n"/>
@@ -8473,12 +8473,12 @@
     </row>
     <row r="72" ht="13.5" customHeight="1" thickBot="1">
       <c r="C72" s="162" t="n">
-        <v>37729</v>
+        <v>37786</v>
       </c>
       <c r="D72" s="668" t="n"/>
       <c r="E72" s="669" t="n"/>
       <c r="F72" s="162" t="n">
-        <v>240</v>
+        <v>240.3589661369832</v>
       </c>
       <c r="G72" s="668" t="n"/>
       <c r="H72" s="669" t="n"/>
@@ -8495,7 +8495,7 @@
       <c r="M72" s="666" t="n"/>
       <c r="N72" s="667" t="n"/>
       <c r="O72" s="162" t="n">
-        <v>7536.15319148937</v>
+        <v>7547.42495731796</v>
       </c>
       <c r="P72" s="668" t="n"/>
       <c r="Q72" s="669" t="n"/>
@@ -8531,12 +8531,12 @@
     </row>
     <row r="73" ht="13.5" customHeight="1" thickBot="1">
       <c r="C73" s="162" t="n">
-        <v>37828</v>
+        <v>37876</v>
       </c>
       <c r="D73" s="668" t="n"/>
       <c r="E73" s="669" t="n"/>
       <c r="F73" s="162" t="n">
-        <v>240.1</v>
+        <v>240.3996377054245</v>
       </c>
       <c r="G73" s="668" t="n"/>
       <c r="H73" s="669" t="n"/>
@@ -8553,7 +8553,7 @@
       <c r="M73" s="666" t="n"/>
       <c r="N73" s="667" t="n"/>
       <c r="O73" s="162" t="n">
-        <v>7564.18565522388</v>
+        <v>7573.62553541188</v>
       </c>
       <c r="P73" s="668" t="n"/>
       <c r="Q73" s="669" t="n"/>
@@ -8589,12 +8589,12 @@
     </row>
     <row r="74" ht="13.5" customHeight="1" thickBot="1">
       <c r="C74" s="162" t="n">
-        <v>37904</v>
+        <v>37933</v>
       </c>
       <c r="D74" s="668" t="n"/>
       <c r="E74" s="669" t="n"/>
       <c r="F74" s="162" t="n">
-        <v>240.2</v>
+        <v>240.3855144016691</v>
       </c>
       <c r="G74" s="668" t="n"/>
       <c r="H74" s="669" t="n"/>
@@ -8611,7 +8611,7 @@
       <c r="M74" s="666" t="n"/>
       <c r="N74" s="667" t="n"/>
       <c r="O74" s="162" t="n">
-        <v>7597.80853409962</v>
+        <v>7603.67657283484</v>
       </c>
       <c r="P74" s="668" t="n"/>
       <c r="Q74" s="669" t="n"/>
@@ -8968,12 +8968,12 @@
     </row>
     <row r="81" ht="13.5" customHeight="1" thickBot="1">
       <c r="C81" s="162" t="n">
-        <v>55856</v>
+        <v>55913</v>
       </c>
       <c r="D81" s="668" t="n"/>
       <c r="E81" s="669" t="n"/>
       <c r="F81" s="162" t="n">
-        <v>240</v>
+        <v>240.2476919245487</v>
       </c>
       <c r="G81" s="668" t="n"/>
       <c r="H81" s="669" t="n"/>
@@ -8990,7 +8990,7 @@
       <c r="M81" s="666" t="n"/>
       <c r="N81" s="667" t="n"/>
       <c r="O81" s="162" t="n">
-        <v>11156.8215</v>
+        <v>11168.3358941216</v>
       </c>
       <c r="P81" s="668" t="n"/>
       <c r="Q81" s="669" t="n"/>
@@ -9026,12 +9026,12 @@
     </row>
     <row r="82" ht="13.5" customHeight="1" thickBot="1">
       <c r="C82" s="162" t="n">
-        <v>56061</v>
+        <v>56129</v>
       </c>
       <c r="D82" s="668" t="n"/>
       <c r="E82" s="669" t="n"/>
       <c r="F82" s="162" t="n">
-        <v>240.1</v>
+        <v>240.3909341609484</v>
       </c>
       <c r="G82" s="668" t="n"/>
       <c r="H82" s="669" t="n"/>
@@ -9048,7 +9048,7 @@
       <c r="M82" s="666" t="n"/>
       <c r="N82" s="667" t="n"/>
       <c r="O82" s="162" t="n">
-        <v>11227.2931813637</v>
+        <v>11240.8975258928</v>
       </c>
       <c r="P82" s="668" t="n"/>
       <c r="Q82" s="669" t="n"/>
@@ -9084,12 +9084,12 @@
     </row>
     <row r="83" ht="13.5" customHeight="1" thickBot="1">
       <c r="C83" s="162" t="n">
-        <v>56197</v>
+        <v>56242</v>
       </c>
       <c r="D83" s="668" t="n"/>
       <c r="E83" s="669" t="n"/>
       <c r="F83" s="162" t="n">
-        <v>240.2</v>
+        <v>240.3956767916329</v>
       </c>
       <c r="G83" s="668" t="n"/>
       <c r="H83" s="669" t="n"/>
@@ -9106,7 +9106,7 @@
       <c r="M83" s="666" t="n"/>
       <c r="N83" s="667" t="n"/>
       <c r="O83" s="162" t="n">
-        <v>11251.9004907143</v>
+        <v>11261.0667512796</v>
       </c>
       <c r="P83" s="668" t="n"/>
       <c r="Q83" s="669" t="n"/>
@@ -9467,12 +9467,12 @@
     </row>
     <row r="90" ht="13.5" customHeight="1" thickBot="1">
       <c r="C90" s="162" t="n">
-        <v>74974</v>
+        <v>75053</v>
       </c>
       <c r="D90" s="668" t="n"/>
       <c r="E90" s="669" t="n"/>
       <c r="F90" s="162" t="n">
-        <v>240</v>
+        <v>240.2510481220017</v>
       </c>
       <c r="G90" s="668" t="n"/>
       <c r="H90" s="669" t="n"/>
@@ -9489,7 +9489,7 @@
       <c r="M90" s="666" t="n"/>
       <c r="N90" s="667" t="n"/>
       <c r="O90" s="162" t="n">
-        <v>14987.8737777778</v>
+        <v>15003.5516009641</v>
       </c>
       <c r="P90" s="668" t="n"/>
       <c r="Q90" s="669" t="n"/>
@@ -9525,12 +9525,12 @@
     </row>
     <row r="91" ht="13.5" customHeight="1" thickBot="1">
       <c r="C91" s="162" t="n">
-        <v>74803</v>
+        <v>74892</v>
       </c>
       <c r="D91" s="668" t="n"/>
       <c r="E91" s="669" t="n"/>
       <c r="F91" s="162" t="n">
-        <v>240.1</v>
+        <v>240.3847023015107</v>
       </c>
       <c r="G91" s="668" t="n"/>
       <c r="H91" s="669" t="n"/>
@@ -9547,7 +9547,7 @@
       <c r="M91" s="666" t="n"/>
       <c r="N91" s="667" t="n"/>
       <c r="O91" s="162" t="n">
-        <v>14977.4184</v>
+        <v>14995.1781063272</v>
       </c>
       <c r="P91" s="668" t="n"/>
       <c r="Q91" s="669" t="n"/>
@@ -9583,12 +9583,12 @@
     </row>
     <row r="92" ht="13.5" customHeight="1" thickBot="1">
       <c r="C92" s="162" t="n">
-        <v>74996</v>
+        <v>75056</v>
       </c>
       <c r="D92" s="668" t="n"/>
       <c r="E92" s="669" t="n"/>
       <c r="F92" s="162" t="n">
-        <v>240.2</v>
+        <v>240.3931018433464</v>
       </c>
       <c r="G92" s="668" t="n"/>
       <c r="H92" s="669" t="n"/>
@@ -9605,7 +9605,7 @@
       <c r="M92" s="666" t="n"/>
       <c r="N92" s="667" t="n"/>
       <c r="O92" s="162" t="n">
-        <v>15037.7181851562</v>
+        <v>15049.807323796</v>
       </c>
       <c r="P92" s="668" t="n"/>
       <c r="Q92" s="669" t="n"/>
@@ -9957,12 +9957,12 @@
     </row>
     <row r="99" ht="13.5" customHeight="1" thickBot="1">
       <c r="C99" s="162" t="n">
-        <v>11308</v>
+        <v>11322</v>
       </c>
       <c r="D99" s="668" t="n"/>
       <c r="E99" s="669" t="n"/>
       <c r="F99" s="162" t="n">
-        <v>240</v>
+        <v>240.2939291479947</v>
       </c>
       <c r="G99" s="668" t="n"/>
       <c r="H99" s="669" t="n"/>
@@ -9979,7 +9979,7 @@
       <c r="M99" s="666" t="n"/>
       <c r="N99" s="667" t="n"/>
       <c r="O99" s="162" t="n">
-        <v>2261.55555555556</v>
+        <v>2264.32529346217</v>
       </c>
       <c r="P99" s="668" t="n"/>
       <c r="Q99" s="669" t="n"/>
@@ -10015,12 +10015,12 @@
     </row>
     <row r="100" ht="13.5" customHeight="1" thickBot="1">
       <c r="C100" s="162" t="n">
-        <v>11278</v>
+        <v>11290</v>
       </c>
       <c r="D100" s="668" t="n"/>
       <c r="E100" s="669" t="n"/>
       <c r="F100" s="162" t="n">
-        <v>240.1</v>
+        <v>240.3474083284822</v>
       </c>
       <c r="G100" s="668" t="n"/>
       <c r="H100" s="669" t="n"/>
@@ -10037,7 +10037,7 @@
       <c r="M100" s="666" t="n"/>
       <c r="N100" s="667" t="n"/>
       <c r="O100" s="162" t="n">
-        <v>2254.337316</v>
+        <v>2256.66027238145</v>
       </c>
       <c r="P100" s="668" t="n"/>
       <c r="Q100" s="669" t="n"/>
@@ -10073,12 +10073,12 @@
     </row>
     <row r="101" ht="13.5" customHeight="1" thickBot="1">
       <c r="C101" s="162" t="n">
-        <v>11301</v>
+        <v>11310</v>
       </c>
       <c r="D101" s="668" t="n"/>
       <c r="E101" s="669" t="n"/>
       <c r="F101" s="162" t="n">
-        <v>240.2</v>
+        <v>240.3906208946074</v>
       </c>
       <c r="G101" s="668" t="n"/>
       <c r="H101" s="669" t="n"/>
@@ -10095,7 +10095,7 @@
       <c r="M101" s="666" t="n"/>
       <c r="N101" s="667" t="n"/>
       <c r="O101" s="162" t="n">
-        <v>2259.9379716129</v>
+        <v>2261.73144121284</v>
       </c>
       <c r="P101" s="668" t="n"/>
       <c r="Q101" s="669" t="n"/>
@@ -10447,12 +10447,12 @@
     </row>
     <row r="108" ht="13.5" customHeight="1" thickBot="1">
       <c r="C108" s="162" t="n">
-        <v>37626</v>
+        <v>37684</v>
       </c>
       <c r="D108" s="668" t="n"/>
       <c r="E108" s="669" t="n"/>
       <c r="F108" s="162" t="n">
-        <v>240</v>
+        <v>240.3678483997723</v>
       </c>
       <c r="G108" s="668" t="n"/>
       <c r="H108" s="669" t="n"/>
@@ -10469,7 +10469,7 @@
       <c r="M108" s="666" t="n"/>
       <c r="N108" s="667" t="n"/>
       <c r="O108" s="162" t="n">
-        <v>7520.40752941176</v>
+        <v>7531.93407055897</v>
       </c>
       <c r="P108" s="668" t="n"/>
       <c r="Q108" s="669" t="n"/>
@@ -10505,12 +10505,12 @@
     </row>
     <row r="109" ht="13.5" customHeight="1" thickBot="1">
       <c r="C109" s="162" t="n">
-        <v>37705</v>
+        <v>37748</v>
       </c>
       <c r="D109" s="668" t="n"/>
       <c r="E109" s="669" t="n"/>
       <c r="F109" s="162" t="n">
-        <v>240.1</v>
+        <v>240.3758347703914</v>
       </c>
       <c r="G109" s="668" t="n"/>
       <c r="H109" s="669" t="n"/>
@@ -10527,7 +10527,7 @@
       <c r="M109" s="666" t="n"/>
       <c r="N109" s="667" t="n"/>
       <c r="O109" s="162" t="n">
-        <v>7535.96991777778</v>
+        <v>7544.62748767344</v>
       </c>
       <c r="P109" s="668" t="n"/>
       <c r="Q109" s="669" t="n"/>
@@ -10563,12 +10563,12 @@
     </row>
     <row r="110" ht="13.5" customHeight="1" thickBot="1">
       <c r="C110" s="162" t="n">
-        <v>37739</v>
+        <v>37767</v>
       </c>
       <c r="D110" s="668" t="n"/>
       <c r="E110" s="669" t="n"/>
       <c r="F110" s="162" t="n">
-        <v>240.2</v>
+        <v>240.3813941258736</v>
       </c>
       <c r="G110" s="668" t="n"/>
       <c r="H110" s="669" t="n"/>
@@ -10585,7 +10585,7 @@
       <c r="M110" s="666" t="n"/>
       <c r="N110" s="667" t="n"/>
       <c r="O110" s="162" t="n">
-        <v>7549.80178293333</v>
+        <v>7555.50323878236</v>
       </c>
       <c r="P110" s="668" t="n"/>
       <c r="Q110" s="669" t="n"/>
@@ -10924,12 +10924,12 @@
     </row>
     <row r="117" ht="13.5" customHeight="1" thickBot="1">
       <c r="C117" s="162" t="n">
-        <v>75228</v>
+        <v>75349</v>
       </c>
       <c r="D117" s="668" t="n"/>
       <c r="E117" s="669" t="n"/>
       <c r="F117" s="162" t="n">
-        <v>240</v>
+        <v>240.385594584508</v>
       </c>
       <c r="G117" s="668" t="n"/>
       <c r="H117" s="669" t="n"/>
@@ -10946,7 +10946,7 @@
       <c r="M117" s="666" t="n"/>
       <c r="N117" s="667" t="n"/>
       <c r="O117" s="162" t="n">
-        <v>15065.6298947368</v>
+        <v>15089.8350001518</v>
       </c>
       <c r="P117" s="668" t="n"/>
       <c r="Q117" s="669" t="n"/>
@@ -10984,12 +10984,12 @@
     </row>
     <row r="118" ht="13.5" customHeight="1" thickBot="1">
       <c r="C118" s="162" t="n">
-        <v>75355</v>
+        <v>75445</v>
       </c>
       <c r="D118" s="668" t="n"/>
       <c r="E118" s="669" t="n"/>
       <c r="F118" s="162" t="n">
-        <v>240.1</v>
+        <v>240.3872848300384</v>
       </c>
       <c r="G118" s="668" t="n"/>
       <c r="H118" s="669" t="n"/>
@@ -11006,7 +11006,7 @@
       <c r="M118" s="666" t="n"/>
       <c r="N118" s="667" t="n"/>
       <c r="O118" s="162" t="n">
-        <v>15077.0722242424</v>
+        <v>15095.112266439</v>
       </c>
       <c r="P118" s="668" t="n"/>
       <c r="Q118" s="669" t="n"/>
@@ -11044,12 +11044,12 @@
     </row>
     <row r="119" ht="13.5" customHeight="1" thickBot="1">
       <c r="C119" s="162" t="n">
-        <v>75468</v>
+        <v>75519</v>
       </c>
       <c r="D119" s="668" t="n"/>
       <c r="E119" s="669" t="n"/>
       <c r="F119" s="162" t="n">
-        <v>240.2</v>
+        <v>240.3602078420186</v>
       </c>
       <c r="G119" s="668" t="n"/>
       <c r="H119" s="669" t="n"/>
@@ -11066,7 +11066,7 @@
       <c r="M119" s="666" t="n"/>
       <c r="N119" s="667" t="n"/>
       <c r="O119" s="162" t="n">
-        <v>15100.3067195876</v>
+        <v>15110.378274764</v>
       </c>
       <c r="P119" s="668" t="n"/>
       <c r="Q119" s="669" t="n"/>
